--- a/biology/Botanique/Androsace_de_Vandelli/Androsace_de_Vandelli.xlsx
+++ b/biology/Botanique/Androsace_de_Vandelli/Androsace_de_Vandelli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Androsace vandellii
 L'Androsace de Vandelli (Androsace vandellii) est une espèce de plantes à fleurs de la famille des Primulacées.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante vivace, naine, en touffes très compactes formées de petites colonnes longues de 1-3 cm sur 4-7 mm de large, plus étroites à la base qu'au sommet ; feuilles très petites, ascendantes, étroitement imbriquées, lancéolées-oblongues, obtuses, entières, blanches-tomenteuses, à duvet très serré formé de courts poils étoiles ; fleurs solitaires, très brièvement pédonculées, à peine saillantes au-dessus des rosettes ; calice tomenteux à poils étoiles, à lobes obtus ; corolle blanche à tube et gorge pourpres, dépassant le calice ; capsule égalant le calice[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante vivace, naine, en touffes très compactes formées de petites colonnes longues de 1-3 cm sur 4-7 mm de large, plus étroites à la base qu'au sommet ; feuilles très petites, ascendantes, étroitement imbriquées, lancéolées-oblongues, obtuses, entières, blanches-tomenteuses, à duvet très serré formé de courts poils étoiles ; fleurs solitaires, très brièvement pédonculées, à peine saillantes au-dessus des rosettes ; calice tomenteux à poils étoiles, à lobes obtus ; corolle blanche à tube et gorge pourpres, dépassant le calice ; capsule égalant le calice.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Androsace argentea (C.F.Gaertn.) Lapeyr.
 Androsace multiflora auct.
